--- a/output/fit_clients/fit_round_107.xlsx
+++ b/output/fit_clients/fit_round_107.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1703926746.550763</v>
+        <v>1531635916.95102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1110044991387003</v>
+        <v>0.1063880189574467</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04140974337136675</v>
+        <v>0.03804845588424276</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>851963329.0475456</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2139718642.52323</v>
+        <v>1723053780.585664</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1579075232281412</v>
+        <v>0.1423372706737105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04457300352765829</v>
+        <v>0.04704772289697046</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1069859382.895211</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4736558015.702248</v>
+        <v>5118588786.794903</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1493632837449426</v>
+        <v>0.1441067067544124</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03193481163146344</v>
+        <v>0.03118602082535667</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>39</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2368279074.151749</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3822578836.696695</v>
+        <v>2623296901.063066</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09533128425047616</v>
+        <v>0.08114224668930047</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03088913013501068</v>
+        <v>0.04411547665316556</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>44</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1911289433.732169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1870735614.41403</v>
+        <v>1928670006.274875</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09403015454004737</v>
+        <v>0.1097615220045679</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0505052686080588</v>
+        <v>0.04366155439263836</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>935367850.7325296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2036298899.350187</v>
+        <v>2700602226.538841</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07384857318537306</v>
+        <v>0.0685194412224753</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04347818942125747</v>
+        <v>0.04643578837545193</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>33</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1018149507.259334</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3267646146.355066</v>
+        <v>3759809149.463295</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2081286533081305</v>
+        <v>0.1425519056181858</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02367524021806482</v>
+        <v>0.02135369164576621</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>35</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1633823157.99023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1916016611.939998</v>
+        <v>1390741863.822322</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1892966653133386</v>
+        <v>0.1453346067662286</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03333021564257512</v>
+        <v>0.02969917533145057</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>958008344.1547626</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3712290515.278749</v>
+        <v>4538795704.119714</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1704007981852501</v>
+        <v>0.1942543668410003</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04203783084734159</v>
+        <v>0.04437239583024042</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>46</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1856145257.182514</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3170708969.986897</v>
+        <v>3429475227.08733</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1284873405335534</v>
+        <v>0.127841209320548</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03442368882686827</v>
+        <v>0.03563337591620103</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>45</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1585354439.776023</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2592762830.540257</v>
+        <v>3219214630.373537</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1350466717664586</v>
+        <v>0.1361225698869063</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04346359995614488</v>
+        <v>0.03535536234187218</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>38</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1296381395.930431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4147219823.915701</v>
+        <v>4117236230.952279</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0648896844776479</v>
+        <v>0.08679867242307794</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0199273958548562</v>
+        <v>0.02603324620505623</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>36</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2073609959.352145</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3808000968.259007</v>
+        <v>2661572737.611732</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1862257468727281</v>
+        <v>0.1696025018113223</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02767723755398944</v>
+        <v>0.04365320794594976</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>34</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1904000460.010621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1461076928.751976</v>
+        <v>1563769520.865832</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1018131730637572</v>
+        <v>0.08378003632420375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03520654661376148</v>
+        <v>0.04251854678776872</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>730538540.9864699</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1752173466.051346</v>
+        <v>2031603311.613995</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08094470689455578</v>
+        <v>0.08463234406264299</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03189014191686018</v>
+        <v>0.04119824111040898</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>876086830.5988995</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4097561406.689069</v>
+        <v>3758118988.453466</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1176066209921177</v>
+        <v>0.1156041116716809</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04193175726736711</v>
+        <v>0.03890711865593818</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>31</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2048780733.072392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2795663516.767993</v>
+        <v>3778034837.497218</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1789272034723293</v>
+        <v>0.1634739676963786</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02259693925672954</v>
+        <v>0.02091074072007627</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>35</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1397831803.348983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>991635286.3007233</v>
+        <v>1299160195.236925</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1347883010008517</v>
+        <v>0.1596491662540673</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02129921102081161</v>
+        <v>0.02386221396747391</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>495817670.2959911</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2286357553.093277</v>
+        <v>2251696329.244442</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1201782091816178</v>
+        <v>0.1451451648067321</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02264760165993451</v>
+        <v>0.02950037418036347</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1143178772.341768</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1819769368.010455</v>
+        <v>1740142317.172596</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07743745819030194</v>
+        <v>0.09987326408662359</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0327420060751492</v>
+        <v>0.03017392172864428</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>909884737.0929399</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2687168003.46272</v>
+        <v>3263538611.586306</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1124931979923029</v>
+        <v>0.09878053243741675</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04945302853673988</v>
+        <v>0.03768863062042904</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>30</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1343584081.936452</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1020651414.812527</v>
+        <v>1365086040.503884</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1610979195937228</v>
+        <v>0.1608232362004171</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0509730945105694</v>
+        <v>0.05209991880103546</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>510325774.0395907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2765301408.986021</v>
+        <v>4079921200.782562</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1012247369904418</v>
+        <v>0.1086617621810609</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03185156394046773</v>
+        <v>0.02289849337365775</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>31</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1382650755.46564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1266574723.404134</v>
+        <v>1162165287.344525</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08374946427882425</v>
+        <v>0.1082692477541199</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01883394440401271</v>
+        <v>0.02624991814076197</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>633287364.2931504</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1209974466.289044</v>
+        <v>1247651322.374007</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08588569571423983</v>
+        <v>0.1174314111334432</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0283635463083509</v>
+        <v>0.02776418137145084</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>604987256.5987772</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3842058669.390806</v>
+        <v>3573841380.990855</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1271838006559885</v>
+        <v>0.1188517014628152</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02613555479260108</v>
+        <v>0.02126720954579415</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1921029352.618444</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2487817728.371027</v>
+        <v>3088533432.24212</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1358199910118191</v>
+        <v>0.1182599116963796</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04830038086293768</v>
+        <v>0.04498139319736825</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>35</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1243908830.870104</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5431919565.858364</v>
+        <v>4451785900.652007</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09463953212036659</v>
+        <v>0.1444310238802718</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0307253809496903</v>
+        <v>0.03258335951862674</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>51</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2715959700.46901</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1667245412.484727</v>
+        <v>2055272777.502473</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1266526834307365</v>
+        <v>0.133964583399598</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0393014201630222</v>
+        <v>0.02903159501897801</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>833622705.7455373</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1148695664.987551</v>
+        <v>1367267080.432235</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08727719995358585</v>
+        <v>0.09995829032358186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03453760249290017</v>
+        <v>0.05226220598558857</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>574347795.9703656</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1553838590.031599</v>
+        <v>1149676196.823434</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07388985883048367</v>
+        <v>0.09766366959014956</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02479654023547612</v>
+        <v>0.03120671432809627</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>776919374.4275619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2016109942.136581</v>
+        <v>2131296557.763956</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1752635944246497</v>
+        <v>0.1941525774350154</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05023125145912768</v>
+        <v>0.05362879786494248</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>31</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1008055050.423638</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1399380724.287894</v>
+        <v>1094015185.100747</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07922621272429786</v>
+        <v>0.1114183044725067</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02312129754737923</v>
+        <v>0.01789948678220087</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>699690334.4248847</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>923986806.4589616</v>
+        <v>882645308.7282498</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1069957823785005</v>
+        <v>0.08582599881085783</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03396582381552546</v>
+        <v>0.0311791132061167</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>461993438.4167238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2713175976.56761</v>
+        <v>2741692135.247483</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1771158062278928</v>
+        <v>0.1534289501265778</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0220577678628942</v>
+        <v>0.02206597820244054</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>27</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1356587993.120286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2810990979.798992</v>
+        <v>2661015573.011189</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08197906436830894</v>
+        <v>0.1090373044357961</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03835220760338648</v>
+        <v>0.03733798876573285</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>28</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1405495628.683511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1369082606.194053</v>
+        <v>1324863300.295498</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1062412841032153</v>
+        <v>0.09884883437348581</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03183861240802333</v>
+        <v>0.03887428436802436</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>684541370.7812334</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1798329135.958535</v>
+        <v>1998203796.38606</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1342145297547097</v>
+        <v>0.1739217150403738</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03211741717306161</v>
+        <v>0.0243937815617774</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>899164593.0873308</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1101124617.16503</v>
+        <v>1407287661.515407</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1398485598298425</v>
+        <v>0.1176140041614187</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05505259399315453</v>
+        <v>0.04986623521075619</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>550562374.5905041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1988386794.407661</v>
+        <v>1901074928.301926</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1063119156077551</v>
+        <v>0.1469043787375588</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04324419685898089</v>
+        <v>0.03471425347168219</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>25</v>
-      </c>
-      <c r="J41" t="n">
-        <v>994193472.4758732</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3580957964.736086</v>
+        <v>3239205820.002043</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1253200766832175</v>
+        <v>0.1133247223624544</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03764472545576598</v>
+        <v>0.03194515688193306</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>36</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1790478982.728351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2380447512.190198</v>
+        <v>2873986016.260907</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1341799118696183</v>
+        <v>0.1694704742794853</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01677514819895689</v>
+        <v>0.0220725003059859</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>34</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1190223816.725577</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1928716159.599813</v>
+        <v>2205815050.37244</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07571042449805293</v>
+        <v>0.0856202026228009</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03641747533296624</v>
+        <v>0.02487066879293461</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>964358171.8526196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1872032090.030859</v>
+        <v>1840425726.607447</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1211250371789909</v>
+        <v>0.1689246185264421</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04441544361065571</v>
+        <v>0.0454649145101305</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>936016022.9565505</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3991509126.386693</v>
+        <v>5375195175.334492</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1117687409192917</v>
+        <v>0.1124823803155518</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04193963673818767</v>
+        <v>0.03749543448368339</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>39</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1995754532.173572</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4357132968.107305</v>
+        <v>4427820179.536944</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1415978946996539</v>
+        <v>0.1909607022000653</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0553779741133005</v>
+        <v>0.04238770459542155</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>29</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2178566503.353672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3770751322.849996</v>
+        <v>4460473927.749937</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09090355417426686</v>
+        <v>0.07513839312280875</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02860765577783596</v>
+        <v>0.03277490260223223</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1885375709.038875</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1866922100.447882</v>
+        <v>1954602756.950308</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1905890271577113</v>
+        <v>0.1220069186220864</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0382775849060818</v>
+        <v>0.04380975771563542</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>933461025.1392292</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3666719110.776366</v>
+        <v>3524326828.789811</v>
       </c>
       <c r="F50" t="n">
-        <v>0.140929160400464</v>
+        <v>0.134070817094924</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04634845942747193</v>
+        <v>0.05000130666816637</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>36</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1833359567.717619</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1489487444.198546</v>
+        <v>1250910983.216272</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1574920942828473</v>
+        <v>0.1803144375705909</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03544141549308825</v>
+        <v>0.03597060996250358</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>744743726.683315</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4572105257.601952</v>
+        <v>3235434576.241439</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09093713460822539</v>
+        <v>0.1105138064405804</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03947346362940088</v>
+        <v>0.06067482884143824</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>44</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2286052651.547458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2533396958.857419</v>
+        <v>2455974470.953998</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1741421218363332</v>
+        <v>0.1634052535989222</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03539721834233291</v>
+        <v>0.0235969314832983</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>31</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1266698544.03539</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4871034698.499556</v>
+        <v>3460654276.826113</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1298658899852551</v>
+        <v>0.1436769586632129</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04641003477719314</v>
+        <v>0.03475460592797493</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>35</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2435517481.64786</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3105757335.041906</v>
+        <v>4833932803.337961</v>
       </c>
       <c r="F55" t="n">
-        <v>0.161181844556157</v>
+        <v>0.1774161478466655</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02994470249243095</v>
+        <v>0.03252828425591037</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>28</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1552878602.890228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1282712082.528077</v>
+        <v>1722088667.145122</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1587049403358005</v>
+        <v>0.1548629407447378</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05566998194907385</v>
+        <v>0.03950336750372452</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>641356115.6249145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4358453745.858463</v>
+        <v>3657788286.739476</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1762440948828895</v>
+        <v>0.1178667682235909</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02639674834808069</v>
+        <v>0.02708526758339973</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>34</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2179226991.317763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1596551461.340425</v>
+        <v>1325936374.361064</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1346544417919555</v>
+        <v>0.1598777067746439</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02848439960019269</v>
+        <v>0.03393374171290157</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>798275752.9263047</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4414825541.082411</v>
+        <v>4061592585.757361</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08174999321500942</v>
+        <v>0.1009755138962818</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04553202134256661</v>
+        <v>0.04039566016475345</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2207412726.431235</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2892704254.879303</v>
+        <v>2340254832.682168</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1764899779299386</v>
+        <v>0.168402229834154</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02238035695723653</v>
+        <v>0.02657863428724622</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>33</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1446352186.474509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2070165422.7453</v>
+        <v>2054650275.45054</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1548759049357493</v>
+        <v>0.1728477332149086</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02903778399869359</v>
+        <v>0.02983385852341379</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>37</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1035082779.455324</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1856425958.81638</v>
+        <v>1950541490.194807</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1317399279335773</v>
+        <v>0.168536794018377</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04748637570815959</v>
+        <v>0.04924072696773422</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>928213015.8766948</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4520705350.933253</v>
+        <v>3726137816.564344</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1027320164934203</v>
+        <v>0.09069558631805619</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04718707242886768</v>
+        <v>0.03827208867721237</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>30</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2260352714.566408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3676217640.521298</v>
+        <v>5191606172.233175</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1420108189396428</v>
+        <v>0.1668493986532565</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02593954239660578</v>
+        <v>0.02324546309058918</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>33</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1838108833.278306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4434375140.869704</v>
+        <v>3928693116.395808</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1613497460587569</v>
+        <v>0.1561411158178068</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0239108251234828</v>
+        <v>0.02444946023232253</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>39</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2217187563.031378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4647440491.948725</v>
+        <v>3762979772.994302</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1315433599922889</v>
+        <v>0.1115933309155435</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04743732282526303</v>
+        <v>0.03501441069339922</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>31</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2323720254.161066</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3420433205.847559</v>
+        <v>2173995860.128765</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06552878552959793</v>
+        <v>0.0668676290427844</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03370845076792935</v>
+        <v>0.05091186247237775</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>35</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1710216585.514166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5583644528.250782</v>
+        <v>5217701318.831038</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1418853641062944</v>
+        <v>0.1604030678762059</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04198214090875257</v>
+        <v>0.04233057886389185</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>34</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2791822355.814687</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2243862850.939681</v>
+        <v>2257259790.169632</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1567936393689246</v>
+        <v>0.1712228870514311</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04566751929425997</v>
+        <v>0.05518144243951436</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1121931461.874542</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3511212884.612762</v>
+        <v>3084295651.506778</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07408139463186855</v>
+        <v>0.08961135294807011</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0410785491199892</v>
+        <v>0.04939213190286312</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>31</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1755606452.545415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3851942981.685867</v>
+        <v>3450061454.267188</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1766480797433796</v>
+        <v>0.1652299248479601</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02459073400470937</v>
+        <v>0.02172730080470838</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>39</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1925971510.768216</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2135741920.136434</v>
+        <v>1893823831.119652</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09521617293378698</v>
+        <v>0.09181019258530071</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04814191120119292</v>
+        <v>0.04373689575374329</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1067870884.469819</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3508582445.906188</v>
+        <v>2191235969.187908</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1024951087503563</v>
+        <v>0.08443585587203833</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04055850193363698</v>
+        <v>0.04487738433524163</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>42</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1754291172.302288</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3999628344.190639</v>
+        <v>2682145252.840415</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1758176380372807</v>
+        <v>0.1487992234601089</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03428836569950391</v>
+        <v>0.03554705653569376</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>37</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1999814150.991574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1512829675.497074</v>
+        <v>1647229481.069689</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1293408461184306</v>
+        <v>0.1206690614973072</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02927574027990144</v>
+        <v>0.03106057440834873</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>756414847.5572085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4120895026.395559</v>
+        <v>3713658190.549489</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09435651248914657</v>
+        <v>0.1216656999435527</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02673234228015868</v>
+        <v>0.02853943651912243</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>23</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2060447502.944101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1718743545.812762</v>
+        <v>2043143899.742479</v>
       </c>
       <c r="F77" t="n">
-        <v>0.161112140655208</v>
+        <v>0.1223889286070155</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01911198837925616</v>
+        <v>0.02636956867705468</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>859371792.8287972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4281338816.084637</v>
+        <v>3934006067.62625</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1218936647240434</v>
+        <v>0.0933051986362694</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04595427910979456</v>
+        <v>0.05004103040455234</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>38</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2140669353.580865</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1430608744.099386</v>
+        <v>1746741194.200365</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1611535160850682</v>
+        <v>0.1268755757346149</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03842370163178925</v>
+        <v>0.0300699240202775</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>715304394.0327164</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4349240243.500201</v>
+        <v>5006772349.959756</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1096360341314984</v>
+        <v>0.06928463252940828</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03004821086756682</v>
+        <v>0.03852741241158818</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>22</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2174620138.525172</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4479886182.23758</v>
+        <v>4240024002.068285</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1076097878236707</v>
+        <v>0.1226603402875457</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02068873811360444</v>
+        <v>0.03310165595460629</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2239943072.085779</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3461908029.287663</v>
+        <v>5674899940.347948</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1497531498717264</v>
+        <v>0.1553852900544089</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0249708078287877</v>
+        <v>0.02170741910546221</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1730954084.366473</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1964923261.343025</v>
+        <v>2065149064.646243</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1460096365537053</v>
+        <v>0.1556169169285064</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03187082746016459</v>
+        <v>0.03091616228348607</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>982461611.5885677</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1618984684.938406</v>
+        <v>2492487762.761775</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1066063224581577</v>
+        <v>0.0883987915929059</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04361380034069151</v>
+        <v>0.0457561465204295</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>809492403.1969767</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2505545167.516776</v>
+        <v>2386303827.019374</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1297441537443706</v>
+        <v>0.1150949303441376</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04768054276572409</v>
+        <v>0.03927314057940925</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>38</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1252772589.260008</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2033655707.117747</v>
+        <v>2551400964.282675</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1593743670336628</v>
+        <v>0.152555227706703</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02220919658987008</v>
+        <v>0.0207950509865652</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1016827885.799409</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>965984522.2518179</v>
+        <v>1501780420.690089</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1351390937952923</v>
+        <v>0.1886599441335909</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0308400466150089</v>
+        <v>0.04317886208531824</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>482992256.6717265</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2740297316.819711</v>
+        <v>3613405833.307467</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1551500651686923</v>
+        <v>0.1269243199828917</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02488923459011185</v>
+        <v>0.02933797498487606</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>42</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1370148663.13715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2986382322.243088</v>
+        <v>2287349435.877199</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1408799326571971</v>
+        <v>0.1047699107470241</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03164697793727262</v>
+        <v>0.04025348858862515</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>36</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1493191200.165834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1358381275.333475</v>
+        <v>1758086934.0535</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08459931929698979</v>
+        <v>0.08399760484106318</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03738799559958407</v>
+        <v>0.04476701821594639</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>679190590.4068404</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1840840622.854353</v>
+        <v>1532690922.633287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1875197549455239</v>
+        <v>0.1940224331960191</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04361371757051537</v>
+        <v>0.0476552545013275</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>920420304.8595808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2281216118.824542</v>
+        <v>2638629944.047077</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1020646310992894</v>
+        <v>0.09500400756312044</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03034098468447671</v>
+        <v>0.0471479671224625</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>23</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1140608026.770775</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3407841153.419873</v>
+        <v>4220079672.658784</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09731814455132098</v>
+        <v>0.09690356656375496</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0480514918115839</v>
+        <v>0.04324372364844005</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>32</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1703920615.573992</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1675458111.457342</v>
+        <v>1916000511.690364</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1222889540584912</v>
+        <v>0.1106059011949132</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04287695045567914</v>
+        <v>0.03521835217995464</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>837729011.832514</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2576625463.868839</v>
+        <v>3037877656.819508</v>
       </c>
       <c r="F95" t="n">
-        <v>0.120750852530918</v>
+        <v>0.1275848053022094</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05025639369924733</v>
+        <v>0.04034220543897901</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1288312762.396566</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1933787693.858027</v>
+        <v>1797157882.559005</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1217251062726595</v>
+        <v>0.1110774919377955</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03443842045008248</v>
+        <v>0.04325390992057533</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>966893840.9059274</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4633894679.493362</v>
+        <v>5106736131.638281</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1487348938518663</v>
+        <v>0.1583080281289785</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02193441533641197</v>
+        <v>0.02812466326711947</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>35</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2316947447.042186</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3594236463.054083</v>
+        <v>2487783783.106784</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1136673073564246</v>
+        <v>0.0983293086136859</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02185321920989282</v>
+        <v>0.03041838718909325</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>28</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1797118256.445611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2177230560.174664</v>
+        <v>3385904140.159799</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1053400270046403</v>
+        <v>0.1233487838943466</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03170140478481882</v>
+        <v>0.03526202208549057</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>34</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1088615206.341101</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3592840598.817998</v>
+        <v>3614429640.925863</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1226372513365246</v>
+        <v>0.1483290790933708</v>
       </c>
       <c r="G100" t="n">
-        <v>0.020792536859761</v>
+        <v>0.02597524525470089</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>33</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1796420337.521029</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3060180145.818231</v>
+        <v>2680084286.036498</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2041665607833645</v>
+        <v>0.1799840217545858</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04807608803698202</v>
+        <v>0.0536098411140107</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>44</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1530090169.860111</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_107.xlsx
+++ b/output/fit_clients/fit_round_107.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1531635916.95102</v>
+        <v>1893823775.035023</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1063880189574467</v>
+        <v>0.09351845709180651</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03804845588424276</v>
+        <v>0.0392797925492613</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1723053780.585664</v>
+        <v>1998261409.347744</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1423372706737105</v>
+        <v>0.1716609242738642</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04704772289697046</v>
+        <v>0.04061608585422596</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5118588786.794903</v>
+        <v>5226836179.727869</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1441067067544124</v>
+        <v>0.158331423663888</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03118602082535667</v>
+        <v>0.02849793060418463</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2623296901.063066</v>
+        <v>3413852049.868269</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08114224668930047</v>
+        <v>0.1101894660872435</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04411547665316556</v>
+        <v>0.03439589141869872</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1928670006.274875</v>
+        <v>1873682977.366209</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1097615220045679</v>
+        <v>0.1465475477935337</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04366155439263836</v>
+        <v>0.03473215011924909</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2700602226.538841</v>
+        <v>2270727067.471945</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0685194412224753</v>
+        <v>0.08140235887392225</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04643578837545193</v>
+        <v>0.04519420901361391</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3759809149.463295</v>
+        <v>2645412476.854596</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1425519056181858</v>
+        <v>0.1978912608514093</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02135369164576621</v>
+        <v>0.0257235547484775</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1390741863.822322</v>
+        <v>2095748788.885467</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1453346067662286</v>
+        <v>0.1800645046113576</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02969917533145057</v>
+        <v>0.0359433399333326</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4538795704.119714</v>
+        <v>3740874231.180367</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1942543668410003</v>
+        <v>0.1989211013262414</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04437239583024042</v>
+        <v>0.03469971969176752</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3429475227.08733</v>
+        <v>4203887931.605496</v>
       </c>
       <c r="F11" t="n">
-        <v>0.127841209320548</v>
+        <v>0.1457078520905671</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03563337591620103</v>
+        <v>0.0313907837552789</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3219214630.373537</v>
+        <v>2092134850.942436</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1361225698869063</v>
+        <v>0.1946232598933646</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03535536234187218</v>
+        <v>0.03743483771231339</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4117236230.952279</v>
+        <v>3844171520.478575</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08679867242307794</v>
+        <v>0.0736077077492136</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02603324620505623</v>
+        <v>0.02615673711128402</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2661572737.611732</v>
+        <v>2610660429.425433</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1696025018113223</v>
+        <v>0.1823503312586773</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04365320794594976</v>
+        <v>0.03656181219050095</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1563769520.865832</v>
+        <v>1132528812.562209</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08378003632420375</v>
+        <v>0.1034123460902155</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04251854678776872</v>
+        <v>0.04263122243629656</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2031603311.613995</v>
+        <v>2247033800.427781</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08463234406264299</v>
+        <v>0.110614543818369</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04119824111040898</v>
+        <v>0.04656839665778646</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3758118988.453466</v>
+        <v>3655973381.513867</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1156041116716809</v>
+        <v>0.1233811262401954</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03890711865593818</v>
+        <v>0.0445047498471926</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3778034837.497218</v>
+        <v>2821165060.842969</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1634739676963786</v>
+        <v>0.1184059138561721</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02091074072007627</v>
+        <v>0.0212173180563578</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1299160195.236925</v>
+        <v>1063904932.883921</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1596491662540673</v>
+        <v>0.1865437644568577</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02386221396747391</v>
+        <v>0.01981497853498965</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2251696329.244442</v>
+        <v>2300510447.713733</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1451451648067321</v>
+        <v>0.1585654857553535</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02950037418036347</v>
+        <v>0.01963610971594827</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1740142317.172596</v>
+        <v>2128391486.475965</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09987326408662359</v>
+        <v>0.0718049673955698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03017392172864428</v>
+        <v>0.03175919742609561</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3263538611.586306</v>
+        <v>3457931586.732337</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09878053243741675</v>
+        <v>0.1085690334075798</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03768863062042904</v>
+        <v>0.05268111077316043</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1365086040.503884</v>
+        <v>1381944959.238431</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1608232362004171</v>
+        <v>0.1510442689413888</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05209991880103546</v>
+        <v>0.05380350670129366</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4079921200.782562</v>
+        <v>2704376673.412006</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1086617621810609</v>
+        <v>0.1453368478251074</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02289849337365775</v>
+        <v>0.03586410759202688</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1162165287.344525</v>
+        <v>1073453465.647176</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1082692477541199</v>
+        <v>0.1001196213972407</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02624991814076197</v>
+        <v>0.02342608593658337</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1247651322.374007</v>
+        <v>978702388.3452317</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1174314111334432</v>
+        <v>0.1054370138109543</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02776418137145084</v>
+        <v>0.02369142494425824</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3573841380.990855</v>
+        <v>2883824973.531847</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1188517014628152</v>
+        <v>0.148642079491607</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02126720954579415</v>
+        <v>0.02155170137289771</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3088533432.24212</v>
+        <v>3399787212.67727</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1182599116963796</v>
+        <v>0.09198278760102115</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04498139319736825</v>
+        <v>0.0476191743981341</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4451785900.652007</v>
+        <v>4699228378.725418</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1444310238802718</v>
+        <v>0.129888135831112</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03258335951862674</v>
+        <v>0.04507002520527135</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2055272777.502473</v>
+        <v>2276805820.213229</v>
       </c>
       <c r="F30" t="n">
-        <v>0.133964583399598</v>
+        <v>0.1079152569980907</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02903159501897801</v>
+        <v>0.03385209264294368</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1367267080.432235</v>
+        <v>1479613765.905861</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09995829032358186</v>
+        <v>0.1107668615775598</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05226220598558857</v>
+        <v>0.040726026477911</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1149676196.823434</v>
+        <v>1483264476.616705</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09766366959014956</v>
+        <v>0.1103891359648072</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03120671432809627</v>
+        <v>0.03717434040009085</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2131296557.763956</v>
+        <v>1964711470.936481</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1941525774350154</v>
+        <v>0.1591764390596907</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05362879786494248</v>
+        <v>0.05084787465470592</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1094015185.100747</v>
+        <v>1434101253.178969</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1114183044725067</v>
+        <v>0.08030337160765359</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01789948678220087</v>
+        <v>0.02808316127146429</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>882645308.7282498</v>
+        <v>1347498944.420926</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08582599881085783</v>
+        <v>0.1140791621380368</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0311791132061167</v>
+        <v>0.03079921301901146</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2741692135.247483</v>
+        <v>2211155582.425605</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1534289501265778</v>
+        <v>0.1423810828606627</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02206597820244054</v>
+        <v>0.02786913323302514</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2661015573.011189</v>
+        <v>2302631506.417724</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1090373044357961</v>
+        <v>0.1010874305640017</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03733798876573285</v>
+        <v>0.03476280343137409</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1324863300.295498</v>
+        <v>1352924070.089525</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09884883437348581</v>
+        <v>0.09359795751275854</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03887428436802436</v>
+        <v>0.03993469593517152</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1998203796.38606</v>
+        <v>1606925905.672808</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1739217150403738</v>
+        <v>0.1232414754489102</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0243937815617774</v>
+        <v>0.02021414741175786</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1407287661.515407</v>
+        <v>1115647387.919582</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1176140041614187</v>
+        <v>0.1468669578621367</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04986623521075619</v>
+        <v>0.06032226573506131</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1901074928.301926</v>
+        <v>2488486030.900251</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1469043787375588</v>
+        <v>0.1455871465824393</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03471425347168219</v>
+        <v>0.03335020520118836</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3239205820.002043</v>
+        <v>3412607565.084022</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1133247223624544</v>
+        <v>0.08056883839260472</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03194515688193306</v>
+        <v>0.02840149166422734</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2873986016.260907</v>
+        <v>2061605940.65728</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1694704742794853</v>
+        <v>0.1276338273973813</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0220725003059859</v>
+        <v>0.01644893307077817</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2205815050.37244</v>
+        <v>2219580261.964012</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0856202026228009</v>
+        <v>0.0628967850284959</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02487066879293461</v>
+        <v>0.03504962819934022</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1840425726.607447</v>
+        <v>1967248694.002822</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1689246185264421</v>
+        <v>0.139065296145301</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0454649145101305</v>
+        <v>0.05194781914815055</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5375195175.334492</v>
+        <v>5711099964.819263</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1124823803155518</v>
+        <v>0.1610629166863947</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03749543448368339</v>
+        <v>0.03778398229010431</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4427820179.536944</v>
+        <v>4094776854.717072</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1909607022000653</v>
+        <v>0.1406447885206349</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04238770459542155</v>
+        <v>0.03618287893898907</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4460473927.749937</v>
+        <v>4556501535.336603</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07513839312280875</v>
+        <v>0.1064308579254429</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03277490260223223</v>
+        <v>0.03525131932925243</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1954602756.950308</v>
+        <v>1827304744.029659</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1220069186220864</v>
+        <v>0.1482672902933584</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04380975771563542</v>
+        <v>0.02764203939820369</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3524326828.789811</v>
+        <v>2611881750.612958</v>
       </c>
       <c r="F50" t="n">
-        <v>0.134070817094924</v>
+        <v>0.122102764344198</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05000130666816637</v>
+        <v>0.03854641748319641</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1250910983.216272</v>
+        <v>1281474539.777644</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1803144375705909</v>
+        <v>0.1256918794125368</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03597060996250358</v>
+        <v>0.03853263515343183</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3235434576.241439</v>
+        <v>4129579904.671539</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1105138064405804</v>
+        <v>0.1294797303802698</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06067482884143824</v>
+        <v>0.05265930202665901</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2455974470.953998</v>
+        <v>2547733686.922846</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1634052535989222</v>
+        <v>0.1455394787883252</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0235969314832983</v>
+        <v>0.02650533076916947</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3460654276.826113</v>
+        <v>4601301062.687445</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1436769586632129</v>
+        <v>0.1697168461377904</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03475460592797493</v>
+        <v>0.0357001896209645</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4833932803.337961</v>
+        <v>3820630324.440532</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1774161478466655</v>
+        <v>0.1619541893776195</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03252828425591037</v>
+        <v>0.0232638966577421</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1722088667.145122</v>
+        <v>1184451705.319338</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1548629407447378</v>
+        <v>0.1624242861294617</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03950336750372452</v>
+        <v>0.0566311505577289</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3657788286.739476</v>
+        <v>3007845857.545969</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1178667682235909</v>
+        <v>0.1119377598409561</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02708526758339973</v>
+        <v>0.02491050552289668</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1325936374.361064</v>
+        <v>1737650196.434859</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1598777067746439</v>
+        <v>0.1478451822207201</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03393374171290157</v>
+        <v>0.03949333249777126</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4061592585.757361</v>
+        <v>4662114470.170035</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1009755138962818</v>
+        <v>0.09618587861882774</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04039566016475345</v>
+        <v>0.03113262265584517</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2340254832.682168</v>
+        <v>2878066841.555353</v>
       </c>
       <c r="F60" t="n">
-        <v>0.168402229834154</v>
+        <v>0.1501104699242259</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02657863428724622</v>
+        <v>0.02675065792894666</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2054650275.45054</v>
+        <v>2553034208.439114</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1728477332149086</v>
+        <v>0.1390132649529769</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02983385852341379</v>
+        <v>0.02611519743539287</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1950541490.194807</v>
+        <v>2122157504.298643</v>
       </c>
       <c r="F62" t="n">
-        <v>0.168536794018377</v>
+        <v>0.1682543910225497</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04924072696773422</v>
+        <v>0.04656121702729721</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3726137816.564344</v>
+        <v>4947062120.605915</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09069558631805619</v>
+        <v>0.09064055677975828</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03827208867721237</v>
+        <v>0.04751132761556798</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5191606172.233175</v>
+        <v>3906142956.970912</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1668493986532565</v>
+        <v>0.1355338923331686</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02324546309058918</v>
+        <v>0.0304731337271754</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3928693116.395808</v>
+        <v>5023576926.099476</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1561411158178068</v>
+        <v>0.1716993196121049</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02444946023232253</v>
+        <v>0.02180488560210084</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3762979772.994302</v>
+        <v>4760726754.746194</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1115933309155435</v>
+        <v>0.1173715629229057</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03501441069339922</v>
+        <v>0.05121154178990456</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2173995860.128765</v>
+        <v>2634710889.40328</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0668676290427844</v>
+        <v>0.07963846005642242</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05091186247237775</v>
+        <v>0.04307453817191269</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5217701318.831038</v>
+        <v>5300740641.431094</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1604030678762059</v>
+        <v>0.1018184283385338</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04233057886389185</v>
+        <v>0.04611942373555495</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2257259790.169632</v>
+        <v>2443599335.713575</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1712228870514311</v>
+        <v>0.125439121243445</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05518144243951436</v>
+        <v>0.05573130531542885</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3084295651.506778</v>
+        <v>3637236299.310354</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08961135294807011</v>
+        <v>0.07774071199399722</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04939213190286312</v>
+        <v>0.04763774554589251</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3450061454.267188</v>
+        <v>4388101180.806554</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1652299248479601</v>
+        <v>0.166114203238082</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02172730080470838</v>
+        <v>0.02058778267875163</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1893823831.119652</v>
+        <v>1967331578.383302</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09181019258530071</v>
+        <v>0.08073080948177677</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04373689575374329</v>
+        <v>0.03395919961997305</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2191235969.187908</v>
+        <v>2478982567.091844</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08443585587203833</v>
+        <v>0.09937810929353388</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04487738433524163</v>
+        <v>0.04672968133215044</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2682145252.840415</v>
+        <v>3447294853.632552</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1487992234601089</v>
+        <v>0.1407941567602906</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03554705653569376</v>
+        <v>0.03404226807060816</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1647229481.069689</v>
+        <v>1859147161.165541</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1206690614973072</v>
+        <v>0.1081030085642886</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03106057440834873</v>
+        <v>0.03653161234814674</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3713658190.549489</v>
+        <v>4231165716.440661</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1216656999435527</v>
+        <v>0.1106480095280845</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02853943651912243</v>
+        <v>0.02611440987758495</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2043143899.742479</v>
+        <v>1995621793.043162</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1223889286070155</v>
+        <v>0.1762461464381888</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02636956867705468</v>
+        <v>0.02975581574502825</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3934006067.62625</v>
+        <v>3051569729.305115</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0933051986362694</v>
+        <v>0.1142560758643087</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05004103040455234</v>
+        <v>0.03865618251110693</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1746741194.200365</v>
+        <v>1679465119.46384</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1268755757346149</v>
+        <v>0.1320176062845459</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0300699240202775</v>
+        <v>0.02523973912133338</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5006772349.959756</v>
+        <v>3575626991.856502</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06928463252940828</v>
+        <v>0.07975580955394838</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03852741241158818</v>
+        <v>0.03327676165296609</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4240024002.068285</v>
+        <v>4976310501.539577</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1226603402875457</v>
+        <v>0.1093144064537926</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03310165595460629</v>
+        <v>0.02685837742857532</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5674899940.347948</v>
+        <v>4776643583.540414</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1553852900544089</v>
+        <v>0.151048669501412</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02170741910546221</v>
+        <v>0.02242819003114587</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2065149064.646243</v>
+        <v>1575805168.137621</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1556169169285064</v>
+        <v>0.1120913913499531</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03091616228348607</v>
+        <v>0.04485499318855825</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2492487762.761775</v>
+        <v>1916192636.064106</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0883987915929059</v>
+        <v>0.09695585571572121</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0457561465204295</v>
+        <v>0.0444229461141099</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2386303827.019374</v>
+        <v>3388902158.535504</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1150949303441376</v>
+        <v>0.1299577371067831</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03927314057940925</v>
+        <v>0.04214426238118352</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2551400964.282675</v>
+        <v>1951881342.565474</v>
       </c>
       <c r="F86" t="n">
-        <v>0.152555227706703</v>
+        <v>0.1080637523450584</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0207950509865652</v>
+        <v>0.02012141602389012</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1501780420.690089</v>
+        <v>1154035033.197935</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1886599441335909</v>
+        <v>0.183588700334444</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04317886208531824</v>
+        <v>0.03447828219600493</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3613405833.307467</v>
+        <v>2620947245.734805</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1269243199828917</v>
+        <v>0.1140378689188395</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02933797498487606</v>
+        <v>0.02589659868765272</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2287349435.877199</v>
+        <v>2470685113.638032</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1047699107470241</v>
+        <v>0.1439835003071443</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04025348858862515</v>
+        <v>0.03011951552369983</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1758086934.0535</v>
+        <v>1378395870.873725</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08399760484106318</v>
+        <v>0.1040827821452542</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04476701821594639</v>
+        <v>0.04408235653739172</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1532690922.633287</v>
+        <v>1608331110.357543</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1940224331960191</v>
+        <v>0.1824296808762077</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0476552545013275</v>
+        <v>0.06140036682393598</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2638629944.047077</v>
+        <v>1944262361.303489</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09500400756312044</v>
+        <v>0.09781777981884783</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0471479671224625</v>
+        <v>0.04063584520901769</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4220079672.658784</v>
+        <v>4624252309.15019</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09690356656375496</v>
+        <v>0.1022117035698389</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04324372364844005</v>
+        <v>0.04500721526886906</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1916000511.690364</v>
+        <v>2519443903.097779</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1106059011949132</v>
+        <v>0.1456414312615076</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03521835217995464</v>
+        <v>0.02835365913614365</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3037877656.819508</v>
+        <v>3130970565.321116</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1275848053022094</v>
+        <v>0.1060551590291021</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04034220543897901</v>
+        <v>0.04901538236362565</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1797157882.559005</v>
+        <v>2276093738.301058</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1110774919377955</v>
+        <v>0.1301528337376743</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04325390992057533</v>
+        <v>0.04453561083682899</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5106736131.638281</v>
+        <v>3460446450.717106</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1583080281289785</v>
+        <v>0.1723823094450003</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02812466326711947</v>
+        <v>0.02795363648393862</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2487783783.106784</v>
+        <v>3877040335.073899</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0983293086136859</v>
+        <v>0.1070668933238938</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03041838718909325</v>
+        <v>0.02146470719003481</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3385904140.159799</v>
+        <v>2674022574.335071</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1233487838943466</v>
+        <v>0.111406682561024</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03526202208549057</v>
+        <v>0.02461411396508768</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3614429640.925863</v>
+        <v>3584251865.219233</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1483290790933708</v>
+        <v>0.1712852201477487</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02597524525470089</v>
+        <v>0.02003070824589713</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2680084286.036498</v>
+        <v>2868784246.807967</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1799840217545858</v>
+        <v>0.1660852546661392</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0536098411140107</v>
+        <v>0.04759932404023132</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_107.xlsx
+++ b/output/fit_clients/fit_round_107.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1893823775.035023</v>
+        <v>1756888054.454988</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09351845709180651</v>
+        <v>0.09995881191668304</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0392797925492613</v>
+        <v>0.04343146809268867</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1998261409.347744</v>
+        <v>2147156326.294547</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1716609242738642</v>
+        <v>0.1791222150374131</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04061608585422596</v>
+        <v>0.03946920238429723</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5226836179.727869</v>
+        <v>4961720406.323481</v>
       </c>
       <c r="F4" t="n">
-        <v>0.158331423663888</v>
+        <v>0.1508176009025674</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02849793060418463</v>
+        <v>0.02471380457024316</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66</v>
+      </c>
+      <c r="J4" t="n">
+        <v>106</v>
+      </c>
+      <c r="K4" t="n">
+        <v>156.1276991574101</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3413852049.868269</v>
+        <v>3694769217.562186</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1101894660872435</v>
+        <v>0.1087082373053279</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03439589141869872</v>
+        <v>0.03566094693067349</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>107</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1873682977.366209</v>
+        <v>2056275871.628874</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1465475477935337</v>
+        <v>0.09896361656461254</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03473215011924909</v>
+        <v>0.05458875673709793</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2270727067.471945</v>
+        <v>2253560153.735805</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08140235887392225</v>
+        <v>0.08533748748279504</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04519420901361391</v>
+        <v>0.04272604661651141</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2645412476.854596</v>
+        <v>3504829296.328669</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1978912608514093</v>
+        <v>0.1450564749064826</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0257235547484775</v>
+        <v>0.03353420856903097</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>103</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2095748788.885467</v>
+        <v>1708084524.102964</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1800645046113576</v>
+        <v>0.1687721511425873</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0359433399333326</v>
+        <v>0.03718970409700632</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3740874231.180367</v>
+        <v>4806033880.35909</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1989211013262414</v>
+        <v>0.1591692714129542</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03469971969176752</v>
+        <v>0.0513665837183206</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>98</v>
+      </c>
+      <c r="J10" t="n">
+        <v>107</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4203887931.605496</v>
+        <v>3861294876.853447</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1457078520905671</v>
+        <v>0.1427912622779176</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0313907837552789</v>
+        <v>0.0397567151547194</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>107</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2092134850.942436</v>
+        <v>2695800741.125351</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1946232598933646</v>
+        <v>0.1460722412037085</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03743483771231339</v>
+        <v>0.04345573284386117</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3844171520.478575</v>
+        <v>3754787392.153808</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0736077077492136</v>
+        <v>0.1014713019071543</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02615673711128402</v>
+        <v>0.03135338281409571</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>53</v>
+      </c>
+      <c r="J13" t="n">
+        <v>107</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +923,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2610660429.425433</v>
+        <v>3154433482.184459</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1823503312586773</v>
+        <v>0.1566129404840692</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03656181219050095</v>
+        <v>0.03224595819727438</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +958,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1132528812.562209</v>
+        <v>1523438519.872577</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1034123460902155</v>
+        <v>0.1062340434684111</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04263122243629656</v>
+        <v>0.04304755545640571</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2247033800.427781</v>
+        <v>2358866012.406615</v>
       </c>
       <c r="F16" t="n">
-        <v>0.110614543818369</v>
+        <v>0.1076221084985494</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04656839665778646</v>
+        <v>0.04996737584623145</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1022,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3655973381.513867</v>
+        <v>3741653637.131442</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1233811262401954</v>
+        <v>0.1501322191586726</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0445047498471926</v>
+        <v>0.04986191359486498</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>51</v>
+      </c>
+      <c r="J17" t="n">
+        <v>107</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1063,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2821165060.842969</v>
+        <v>3607537228.083923</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1184059138561721</v>
+        <v>0.1622178934090061</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0212173180563578</v>
+        <v>0.02576533325235464</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>105</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1063904932.883921</v>
+        <v>1332833496.944155</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1865437644568577</v>
+        <v>0.190718437822427</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01981497853498965</v>
+        <v>0.0231775317390212</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1127,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2300510447.713733</v>
+        <v>1766134650.755321</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1585654857553535</v>
+        <v>0.1442681914693463</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01963610971594827</v>
+        <v>0.02642529450148692</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2128391486.475965</v>
+        <v>2451865612.224516</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0718049673955698</v>
+        <v>0.09769357659026354</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03175919742609561</v>
+        <v>0.03008915678891239</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1203,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3457931586.732337</v>
+        <v>3826631263.671756</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1085690334075798</v>
+        <v>0.1004219214604823</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05268111077316043</v>
+        <v>0.05617015496692613</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>26</v>
+      </c>
+      <c r="J22" t="n">
+        <v>107</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1232,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1381944959.238431</v>
+        <v>1307578858.222929</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1510442689413888</v>
+        <v>0.1727946936774317</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05380350670129366</v>
+        <v>0.04445629668210438</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1267,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2704376673.412006</v>
+        <v>3818471694.053573</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1453368478251074</v>
+        <v>0.1441452286440869</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03586410759202688</v>
+        <v>0.02965732382500207</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>32</v>
+      </c>
+      <c r="J24" t="n">
+        <v>106</v>
+      </c>
+      <c r="K24" t="n">
+        <v>144.0607588158902</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1310,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1073453465.647176</v>
+        <v>1281513490.482993</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1001196213972407</v>
+        <v>0.09949195183444717</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02342608593658337</v>
+        <v>0.02686176071690527</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>978702388.3452317</v>
+        <v>1351789361.524663</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1054370138109543</v>
+        <v>0.1050499551641791</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02369142494425824</v>
+        <v>0.03145614904815666</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2883824973.531847</v>
+        <v>3111887980.717433</v>
       </c>
       <c r="F27" t="n">
-        <v>0.148642079491607</v>
+        <v>0.129038280944286</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02155170137289771</v>
+        <v>0.0183288694905888</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>42</v>
+      </c>
+      <c r="J27" t="n">
+        <v>106</v>
+      </c>
+      <c r="K27" t="n">
+        <v>87.06314172646667</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3399787212.67727</v>
+        <v>3480584650.696817</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09198278760102115</v>
+        <v>0.09829597965796168</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0476191743981341</v>
+        <v>0.03368336980447476</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4699228378.725418</v>
+        <v>4244764984.63605</v>
       </c>
       <c r="F29" t="n">
-        <v>0.129888135831112</v>
+        <v>0.111790778888201</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04507002520527135</v>
+        <v>0.0355958068859356</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>100</v>
+      </c>
+      <c r="J29" t="n">
+        <v>107</v>
+      </c>
+      <c r="K29" t="n">
+        <v>186.2708028377988</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2276805820.213229</v>
+        <v>1864193248.061632</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1079152569980907</v>
+        <v>0.09024507265330739</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03385209264294368</v>
+        <v>0.03680237389979989</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1479613765.905861</v>
+        <v>1333194716.396232</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1107668615775598</v>
+        <v>0.08870768394409627</v>
       </c>
       <c r="G31" t="n">
-        <v>0.040726026477911</v>
+        <v>0.03571367153981191</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1483264476.616705</v>
+        <v>1400535468.568588</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1103891359648072</v>
+        <v>0.07265287526463503</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03717434040009085</v>
+        <v>0.0284399345384187</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1964711470.936481</v>
+        <v>3100820169.712091</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1591764390596907</v>
+        <v>0.2001009081037326</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05084787465470592</v>
+        <v>0.04962627756303051</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1434101253.178969</v>
+        <v>1508414281.586484</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08030337160765359</v>
+        <v>0.08684086173438738</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02808316127146429</v>
+        <v>0.01716858253218638</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1347498944.420926</v>
+        <v>1109855812.460603</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1140791621380368</v>
+        <v>0.1050411291546441</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03079921301901146</v>
+        <v>0.04232782689766856</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2211155582.425605</v>
+        <v>2242160507.335289</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1423810828606627</v>
+        <v>0.1474416157529737</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02786913323302514</v>
+        <v>0.01826653844833656</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2302631506.417724</v>
+        <v>1928366894.272574</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1010874305640017</v>
+        <v>0.09998759519349312</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03476280343137409</v>
+        <v>0.03209259331784189</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1352924070.089525</v>
+        <v>2195261218.33569</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09359795751275854</v>
+        <v>0.0782539877648718</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03993469593517152</v>
+        <v>0.03401329565690463</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1606925905.672808</v>
+        <v>1395401078.545262</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1232414754489102</v>
+        <v>0.1763176304214594</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02021414741175786</v>
+        <v>0.02545313578904664</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1115647387.919582</v>
+        <v>1679584689.631118</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1468669578621367</v>
+        <v>0.1498362892151961</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06032226573506131</v>
+        <v>0.05115027839447698</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2488486030.900251</v>
+        <v>2081349931.077407</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1455871465824393</v>
+        <v>0.112822829408557</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03335020520118836</v>
+        <v>0.03889156077833181</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3412607565.084022</v>
+        <v>3036249913.593567</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08056883839260472</v>
+        <v>0.09613555851283685</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02840149166422734</v>
+        <v>0.0458712226315665</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>104</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1944,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2061605940.65728</v>
+        <v>2510352433.189091</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1276338273973813</v>
+        <v>0.1728224955653708</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01644893307077817</v>
+        <v>0.01799568093887373</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2219580261.964012</v>
+        <v>2355214221.117147</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0628967850284959</v>
+        <v>0.07996454233014262</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03504962819934022</v>
+        <v>0.03102824988520826</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1967248694.002822</v>
+        <v>2216791180.439823</v>
       </c>
       <c r="F45" t="n">
-        <v>0.139065296145301</v>
+        <v>0.129966200297523</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05194781914815055</v>
+        <v>0.04025243100454845</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5711099964.819263</v>
+        <v>4167606300.246944</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1610629166863947</v>
+        <v>0.1119957368270631</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03778398229010431</v>
+        <v>0.03899142570228675</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>61</v>
+      </c>
+      <c r="J46" t="n">
+        <v>107</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2078,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4094776854.717072</v>
+        <v>3296263357.554494</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1406447885206349</v>
+        <v>0.1428735094864236</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03618287893898907</v>
+        <v>0.04787098795089539</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>47</v>
+      </c>
+      <c r="J47" t="n">
+        <v>106</v>
+      </c>
+      <c r="K47" t="n">
+        <v>97.30969651967983</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4556501535.336603</v>
+        <v>2881430153.843826</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1064308579254429</v>
+        <v>0.09112395527917912</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03525131932925243</v>
+        <v>0.02860030335651941</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>40</v>
+      </c>
+      <c r="J48" t="n">
+        <v>106</v>
+      </c>
+      <c r="K48" t="n">
+        <v>91.18901015026114</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1827304744.029659</v>
+        <v>1991772977.101901</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1482672902933584</v>
+        <v>0.1375222075113953</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02764203939820369</v>
+        <v>0.04428202966182063</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2611881750.612958</v>
+        <v>3353687476.862225</v>
       </c>
       <c r="F50" t="n">
-        <v>0.122102764344198</v>
+        <v>0.1126313161806228</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03854641748319641</v>
+        <v>0.0494246084317351</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>37</v>
+      </c>
+      <c r="J50" t="n">
+        <v>103</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1281474539.777644</v>
+        <v>1036353200.064688</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1256918794125368</v>
+        <v>0.1498773594706392</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03853263515343183</v>
+        <v>0.04228665674689932</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4129579904.671539</v>
+        <v>4537603343.448694</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1294797303802698</v>
+        <v>0.1235503108599939</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05265930202665901</v>
+        <v>0.06016165345243333</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>82</v>
+      </c>
+      <c r="J52" t="n">
+        <v>107</v>
+      </c>
+      <c r="K52" t="n">
+        <v>165.8254528207127</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2300,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2547733686.922846</v>
+        <v>2715822691.947188</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1455394787883252</v>
+        <v>0.1527273649671548</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02650533076916947</v>
+        <v>0.02263681672472309</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4601301062.687445</v>
+        <v>3416681896.032778</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1697168461377904</v>
+        <v>0.1434427963577857</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0357001896209645</v>
+        <v>0.04017496855330174</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>48</v>
+      </c>
+      <c r="J54" t="n">
+        <v>105</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3820630324.440532</v>
+        <v>4106911767.673112</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1619541893776195</v>
+        <v>0.2076338708599053</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0232638966577421</v>
+        <v>0.02924488631771666</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>49</v>
+      </c>
+      <c r="J55" t="n">
+        <v>106</v>
+      </c>
+      <c r="K55" t="n">
+        <v>143.6074374339012</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1184451705.319338</v>
+        <v>1399523604.342791</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1624242861294617</v>
+        <v>0.1338601348358407</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0566311505577289</v>
+        <v>0.04408435557470185</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3007845857.545969</v>
+        <v>3389541177.077456</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1119377598409561</v>
+        <v>0.1742544169040568</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02491050552289668</v>
+        <v>0.01762436274113571</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>41</v>
+      </c>
+      <c r="J57" t="n">
+        <v>105</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2477,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1737650196.434859</v>
+        <v>1757907278.99129</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1478451822207201</v>
+        <v>0.1902957511654297</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03949333249777126</v>
+        <v>0.0312533414144466</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2512,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4662114470.170035</v>
+        <v>4635735863.655159</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09618587861882774</v>
+        <v>0.1224396238153265</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03113262265584517</v>
+        <v>0.03779256371815735</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>52</v>
+      </c>
+      <c r="J59" t="n">
+        <v>106</v>
+      </c>
+      <c r="K59" t="n">
+        <v>146.5799859945564</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2543,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2878066841.555353</v>
+        <v>3374370311.804223</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1501104699242259</v>
+        <v>0.186913294443363</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02675065792894666</v>
+        <v>0.02878975694289071</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15</v>
+      </c>
+      <c r="J60" t="n">
+        <v>106</v>
+      </c>
+      <c r="K60" t="n">
+        <v>120.3020573174068</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2553034208.439114</v>
+        <v>2661542477.120699</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1390132649529769</v>
+        <v>0.171690167589597</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02611519743539287</v>
+        <v>0.02044089764366788</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2122157504.298643</v>
+        <v>2014319719.277472</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1682543910225497</v>
+        <v>0.1598017753816772</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04656121702729721</v>
+        <v>0.03961525309677982</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4947062120.605915</v>
+        <v>3431873458.512757</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09064055677975828</v>
+        <v>0.06828780656954567</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04751132761556798</v>
+        <v>0.0454847057877661</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>53</v>
+      </c>
+      <c r="J63" t="n">
+        <v>106</v>
+      </c>
+      <c r="K63" t="n">
+        <v>114.5257579438902</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3906142956.970912</v>
+        <v>4832453677.385629</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1355338923331686</v>
+        <v>0.183922441087653</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0304731337271754</v>
+        <v>0.028108065354303</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>53</v>
+      </c>
+      <c r="J64" t="n">
+        <v>106</v>
+      </c>
+      <c r="K64" t="n">
+        <v>152.0904295461542</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5023576926.099476</v>
+        <v>4093517351.03839</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1716993196121049</v>
+        <v>0.1620273114744422</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02180488560210084</v>
+        <v>0.01973554649191745</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>88</v>
+      </c>
+      <c r="J65" t="n">
+        <v>107</v>
+      </c>
+      <c r="K65" t="n">
+        <v>163.62663362728</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4760726754.746194</v>
+        <v>3673535778.078054</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1173715629229057</v>
+        <v>0.115590036891602</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05121154178990456</v>
+        <v>0.0323927070158089</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>52</v>
+      </c>
+      <c r="J66" t="n">
+        <v>107</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2634710889.40328</v>
+        <v>2165204709.718747</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07963846005642242</v>
+        <v>0.07773021814920314</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04307453817191269</v>
+        <v>0.04864067371325034</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5300740641.431094</v>
+        <v>5514324745.609697</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1018184283385338</v>
+        <v>0.1136026351730352</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04611942373555495</v>
+        <v>0.04507523188310506</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>53</v>
+      </c>
+      <c r="J68" t="n">
+        <v>107</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2443599335.713575</v>
+        <v>2398457891.734467</v>
       </c>
       <c r="F69" t="n">
-        <v>0.125439121243445</v>
+        <v>0.1257329727050783</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05573130531542885</v>
+        <v>0.0553398912168264</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3637236299.310354</v>
+        <v>3368994796.309122</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07774071199399722</v>
+        <v>0.08906082133447032</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04763774554589251</v>
+        <v>0.04144926174451886</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>105</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4388101180.806554</v>
+        <v>4331798377.014275</v>
       </c>
       <c r="F71" t="n">
-        <v>0.166114203238082</v>
+        <v>0.1155462378727281</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02058778267875163</v>
+        <v>0.02318884275942781</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>87</v>
+      </c>
+      <c r="J71" t="n">
+        <v>107</v>
+      </c>
+      <c r="K71" t="n">
+        <v>162.0021043654555</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1967331578.383302</v>
+        <v>1386745900.137905</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08073080948177677</v>
+        <v>0.07154798648938455</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03395919961997305</v>
+        <v>0.04632040158716383</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2478982567.091844</v>
+        <v>2218168459.572421</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09937810929353388</v>
+        <v>0.07275140578784232</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04672968133215044</v>
+        <v>0.05019890661053347</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3447294853.632552</v>
+        <v>2911101103.942875</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1407941567602906</v>
+        <v>0.1644137893873953</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03404226807060816</v>
+        <v>0.02584470892679414</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>36</v>
+      </c>
+      <c r="J74" t="n">
+        <v>106</v>
+      </c>
+      <c r="K74" t="n">
+        <v>90.9491926850332</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1859147161.165541</v>
+        <v>1925598511.456064</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1081030085642886</v>
+        <v>0.1594653207706571</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03653161234814674</v>
+        <v>0.02623780105667155</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4231165716.440661</v>
+        <v>4498864595.215395</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1106480095280845</v>
+        <v>0.1074188900623063</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02611440987758495</v>
+        <v>0.02402635890932207</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>49</v>
+      </c>
+      <c r="J76" t="n">
+        <v>107</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1995621793.043162</v>
+        <v>1540592800.745589</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1762461464381888</v>
+        <v>0.180355797649991</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02975581574502825</v>
+        <v>0.02583452420600664</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3051569729.305115</v>
+        <v>3720408589.325285</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1142560758643087</v>
+        <v>0.1199661085397089</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03865618251110693</v>
+        <v>0.0442020889038359</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>53</v>
+      </c>
+      <c r="J78" t="n">
+        <v>107</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1679465119.46384</v>
+        <v>1770382624.768197</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1320176062845459</v>
+        <v>0.1636626194725069</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02523973912133338</v>
+        <v>0.03731838401811603</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3575626991.856502</v>
+        <v>4473377932.949609</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07975580955394838</v>
+        <v>0.08401344523628551</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03327676165296609</v>
+        <v>0.03733524150787883</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>51</v>
+      </c>
+      <c r="J80" t="n">
+        <v>107</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4976310501.539577</v>
+        <v>4121396935.096687</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1093144064537926</v>
+        <v>0.1197371267469113</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02685837742857532</v>
+        <v>0.0252775505110699</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>47</v>
+      </c>
+      <c r="J81" t="n">
+        <v>107</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4776643583.540414</v>
+        <v>3830093200.325766</v>
       </c>
       <c r="F82" t="n">
-        <v>0.151048669501412</v>
+        <v>0.2034790919780112</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02242819003114587</v>
+        <v>0.02902080685078119</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>71</v>
+      </c>
+      <c r="J82" t="n">
+        <v>107</v>
+      </c>
+      <c r="K82" t="n">
+        <v>167.3125318672113</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1575805168.137621</v>
+        <v>2150470057.817685</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1120913913499531</v>
+        <v>0.1524516838136683</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04485499318855825</v>
+        <v>0.04465195865862991</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1916192636.064106</v>
+        <v>2083334850.022917</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09695585571572121</v>
+        <v>0.08818291553599725</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0444229461141099</v>
+        <v>0.05228661545501112</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3432,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3388902158.535504</v>
+        <v>3014050762.901208</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1299577371067831</v>
+        <v>0.1241153205123609</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04214426238118352</v>
+        <v>0.04494795551551213</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="n">
+        <v>105.792110228987</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1951881342.565474</v>
+        <v>1821153755.225616</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1080637523450584</v>
+        <v>0.1212714029132342</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02012141602389012</v>
+        <v>0.0174596869758216</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1154035033.197935</v>
+        <v>1429813620.376367</v>
       </c>
       <c r="F87" t="n">
-        <v>0.183588700334444</v>
+        <v>0.1192392106193041</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03447828219600493</v>
+        <v>0.04393803234070997</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3545,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2620947245.734805</v>
+        <v>3216372067.750391</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1140378689188395</v>
+        <v>0.1391780025412438</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02589659868765272</v>
+        <v>0.0252984612672166</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="n">
+        <v>119.067803286762</v>
       </c>
     </row>
     <row r="89">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2470685113.638032</v>
+        <v>2583085122.234451</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1439835003071443</v>
+        <v>0.1456427461951924</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03011951552369983</v>
+        <v>0.03830133778847948</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1378395870.873725</v>
+        <v>1320079761.865065</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1040827821452542</v>
+        <v>0.1025532443756138</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04408235653739172</v>
+        <v>0.04600331481873102</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1608331110.357543</v>
+        <v>1521674846.933959</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1824296808762077</v>
+        <v>0.1240740926767919</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06140036682393598</v>
+        <v>0.04538778897293961</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1944262361.303489</v>
+        <v>2706604124.726429</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09781777981884783</v>
+        <v>0.08768417433936465</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04063584520901769</v>
+        <v>0.0397011412891699</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4624252309.15019</v>
+        <v>4410034524.649636</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1022117035698389</v>
+        <v>0.1269248111779923</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04500721526886906</v>
+        <v>0.05225086539945742</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>49</v>
+      </c>
+      <c r="J93" t="n">
+        <v>106</v>
+      </c>
+      <c r="K93" t="n">
+        <v>145.6523706785755</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2519443903.097779</v>
+        <v>2457269859.210127</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1456414312615076</v>
+        <v>0.1674826900965883</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02835365913614365</v>
+        <v>0.03234296394311915</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3130970565.321116</v>
+        <v>2741917262.751792</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1060551590291021</v>
+        <v>0.08979471358167643</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04901538236362565</v>
+        <v>0.05256739295089209</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2276093738.301058</v>
+        <v>1592972171.451825</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1301528337376743</v>
+        <v>0.08746849734985487</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04453561083682899</v>
+        <v>0.04474688636360554</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3460446450.717106</v>
+        <v>5315750256.041887</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1723823094450003</v>
+        <v>0.1161770715285592</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02795363648393862</v>
+        <v>0.02324660759075155</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>51</v>
+      </c>
+      <c r="J97" t="n">
+        <v>107</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3877040335.073899</v>
+        <v>3871556539.259559</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1070668933238938</v>
+        <v>0.1241132431261608</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02146470719003481</v>
+        <v>0.0258779564891294</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>24</v>
+      </c>
+      <c r="J98" t="n">
+        <v>107</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2674022574.335071</v>
+        <v>2309503906.856453</v>
       </c>
       <c r="F99" t="n">
-        <v>0.111406682561024</v>
+        <v>0.1368882260400636</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02461411396508768</v>
+        <v>0.03477946100171802</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3584251865.219233</v>
+        <v>4571931551.076437</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1712852201477487</v>
+        <v>0.1189698974079201</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02003070824589713</v>
+        <v>0.02236872689336808</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>44</v>
+      </c>
+      <c r="J100" t="n">
+        <v>106</v>
+      </c>
+      <c r="K100" t="n">
+        <v>146.4282072820687</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2868784246.807967</v>
+        <v>3340606288.268196</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1660852546661392</v>
+        <v>0.1420302634896564</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04759932404023132</v>
+        <v>0.0537026611870615</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
